--- a/Employer1.xlsx
+++ b/Employer1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Execute</t>
   </si>

--- a/Employer1.xlsx
+++ b/Employer1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Execute</t>
   </si>

--- a/Employer1.xlsx
+++ b/Employer1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetya\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetya\IdeaProjects\DuoBank-sprint4-gurus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Execute</t>
   </si>
@@ -53,64 +53,13 @@
     <t>White House</t>
   </si>
   <si>
-    <t>Duotech</t>
-  </si>
-  <si>
-    <t>Disney</t>
-  </si>
-  <si>
-    <t>*123$</t>
-  </si>
-  <si>
     <t>President</t>
   </si>
   <si>
-    <t>Profesor</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>Washinghton</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>___------==</t>
-  </si>
-  <si>
-    <t>(****)</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Tg</t>
-  </si>
-  <si>
-    <t>45/23/2055</t>
-  </si>
-  <si>
-    <t>00/00/77</t>
-  </si>
-  <si>
-    <t>^%$$EE</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>vail</t>
   </si>
   <si>
     <t>PASS</t>
@@ -121,19 +70,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,9 +99,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,105 +426,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>40859</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>40859</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Employer1.xlsx
+++ b/Employer1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Execute</t>
   </si>
@@ -59,10 +59,25 @@
     <t>DC</t>
   </si>
   <si>
-    <t>vail</t>
-  </si>
-  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Washingthton</t>
+  </si>
+  <si>
+    <t>Vail</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -382,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A3:G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -438,7 +453,30 @@
         <v>40859</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36426</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Employer1.xlsx
+++ b/Employer1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Execute</t>
   </si>

--- a/Employer1.xlsx
+++ b/Employer1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetya\IdeaProjects\DuoBank-sprint4-gurus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetya\IdeaProjects\DuoBank-Sprint_4-gurus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Execute</t>
   </si>
@@ -59,25 +59,52 @@
     <t>DC</t>
   </si>
   <si>
+    <t>Washingthton</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>12/12/1212</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>Veil</t>
+  </si>
+  <si>
+    <t>56/44/1999</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>CDC</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>Washingthton</t>
-  </si>
-  <si>
-    <t>Vail</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>$%tt</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>^&amp;</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -397,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,7 +471,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -453,7 +480,7 @@
         <v>40859</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -461,22 +488,68 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36235</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1">
-        <v>36426</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Employer1.xlsx
+++ b/Employer1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Execute</t>
   </si>

--- a/Employer1.xlsx
+++ b/Employer1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Execute</t>
   </si>
